--- a/medicine/Sexualité et sexologie/Cinquante_Nuances_plus_claires/Cinquante_Nuances_plus_claires.xlsx
+++ b/medicine/Sexualité et sexologie/Cinquante_Nuances_plus_claires/Cinquante_Nuances_plus_claires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cinquante Nuances plus claires (titre original : Fifty Shades Freed) est une romance érotique écrite par la britannique E. L. James, connue d'abord par auto-publication sur le site Internet de l'auteur puis sur le site internet The Writers' Coffee Shop qui le propose à l'impression à la demande en janvier 2012. L'éditeur Vintage Books le publie en édition papier dans une version révisée en avril 2012.
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plus heureux que jamais, Anastasia et Christian forment désormais un couple solide. Cependant, leur bonheur est troublé par Jack Hyde, l'ancien patron d'Ana et par une nouvelle qui pourrait détruire leur relation.
 </t>
@@ -544,7 +558,9 @@
           <t>Série Cinquante Nuances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cinquante Nuances de Grey, Jean-Claude Lattès, 2012 ((en) Fifty Shades of Grey, Vintage Books, 2012), trad. Denyse Beaulieu  (ISBN 978-2-7096-4252-1)
 Cinquante Nuances plus sombres, Jean-Claude Lattès, 2013 ((en) Fifty Shades Darker, Vintage Books, 2012), trad. Aurélie Tronchet  (ISBN 978-2-7096-4253-8)
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,7 +623,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>E. L. James, Fifty Shades Freed, Vintage Books, 17 avril 2012, 592 p.  (ISBN 978-0345803504)
 E. L. James, Cinquante Nuances plus claires, Jean-Claude Lattès, 6 février 2013, trad. Denyse Beaulieu, 600 p.  (ISBN 978-2-7096-4254-5)
